--- a/Lab_3/Data/data_artificial.xlsx
+++ b/Lab_3/Data/data_artificial.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Programming\HHYear4\Artificial_Intelligense_Course\Artificial_Intelligense_Course\Lab_3\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E6415A-17C0-43B6-99C3-DEF04169FFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="38640" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -100,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,48 +589,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Anteckning" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Beräkning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Bra" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Dålig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Förklarande text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Indata" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kontrollcell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Länkad cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Rubrik" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Rubrik 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Rubrik 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Rubrik 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Rubrik 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Summa" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Varningstext" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,12 +638,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -679,7 +688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,9 +721,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,6 +773,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -922,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
